--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,81 +46,84 @@
     <t>evil</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>sick</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -136,28 +139,28 @@
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>social</t>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -693,10 +696,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -740,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0.86</v>
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>0.8333333333333334</v>
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9038461538461539</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.631578947368421</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8636363636363636</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C10">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,16 +1014,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.4827586206896552</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,38 +1043,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12">
-        <v>0.4533333333333333</v>
-      </c>
-      <c r="L12">
-        <v>34</v>
-      </c>
-      <c r="M12">
-        <v>34</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.3888888888888889</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1140,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.3684210526315789</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.2592592592592592</v>
+        <v>0.125</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1258,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.04098360655737705</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1282,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1290,13 +1293,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1316,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4705882352941176</v>
+        <v>0.5625</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1334,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1342,13 +1345,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4642857142857143</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1360,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1368,13 +1371,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.463768115942029</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1386,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1394,7 +1397,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1412,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1420,13 +1423,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4375</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1446,13 +1449,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4042553191489361</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1464,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1472,13 +1475,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.391304347826087</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1490,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1498,13 +1501,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.35</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1524,13 +1527,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3428571428571429</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1542,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1550,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.282051282051282</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1568,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1576,13 +1579,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1594,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1602,13 +1605,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.08974358974358974</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1620,7 +1623,33 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
